--- a/medicine/Médecine vétérinaire/Éric_Clua/Éric_Clua.xlsx
+++ b/medicine/Médecine vétérinaire/Éric_Clua/Éric_Clua.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89ric_Clua</t>
+          <t>Éric_Clua</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Éric Clua (né en 1964) est un vétérinaire français qui s'intéresse à l’apnée et aux requins.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89ric_Clua</t>
+          <t>Éric_Clua</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Né le 16 juillet 1964 à Gimont dans le Gers, d’un père vétérinaire fonctionnaire du ministère de l'Agriculture et d’une mère ingénieure chimiste, il est l’aîné d’une fratrie composée de trois frères et une sœur [réf. nécessaire].  
-Un stage de vétérinaire entre 1991 et 1994 à la Dominique (Petites Antilles) lui permet d'étudier le nourrissage des porcs à partir de déchets des bananeraies [1],[2]. En Mauritanie ensuite, il travaille sur les oiseaux du Parc national du banc d’Arguin dont étudie aussi les poissons[réf. nécessaire]. Toutefois, aucune trace ne semble exister de ses travaux scientifiques sur les oiseaux et les poissons du banc d'Arguin. 
+Un stage de vétérinaire entre 1991 et 1994 à la Dominique (Petites Antilles) lui permet d'étudier le nourrissage des porcs à partir de déchets des bananeraies ,. En Mauritanie ensuite, il travaille sur les oiseaux du Parc national du banc d’Arguin dont étudie aussi les poissons[réf. nécessaire]. Toutefois, aucune trace ne semble exister de ses travaux scientifiques sur les oiseaux et les poissons du banc d'Arguin. 
 Fonctionnaire du ministère de l'Agriculture, il effectue, tardivement, une thèse de doctorat de l'École pratique des hautes études (EPHE) sur les poissons de Nouvelle-Calédonie de 2001 à 2004  [réf. nécessaire]. Après un bref retour au ministère de l'Agriculture à Paris, il est nommé coordinateur d'un programme orienté vers la protection et la gestion durable des récifs coralliens dans le Pacifique (" CRISP ") financé par l’Agence française de développement [réf. nécessaire], basé au Secrétariat de la Communauté du Pacifique (CPS, Nouméa) de 2005 à 2010. Il est ensuite affecté en Polynésie française en tant que conseiller scientifique du haut-commissaire de la République entre 2012 et 2016[réf. nécessaire].
 Il est recruté comme directeur d’études par l’EPHE fin 2016 et est actuellement en poste à Perpignan à l'unité de service et de recherche CRIOBE où il s'intéresse à l’écologie comportementale des requins[réf. nécessaire].
 </t>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89ric_Clua</t>
+          <t>Éric_Clua</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Diplômes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Doctorat vétérinaire de l’Ecole Nationale Vétérinaire de Toulouse (1985-1989)
@@ -562,7 +578,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89ric_Clua</t>
+          <t>Éric_Clua</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,6 +597,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89ric_Clua</t>
+          <t>Éric_Clua</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,7 +624,9 @@
           <t>Contributions télévisuelles</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>2000 : auteur et cadreur sous-marin pour : “Chasses croisées aux Açores” – Documentaire TV (26’) - Réalisateur : Djamel Tahi – Production : Gédéon production – Diffusion : La cinquième.
 2003 : cadreur sous-marin pour : “Vautours des mers”– Documentaire TV (52’). Production : Saint Thomas Production &amp; CANAL+ &amp; Discovery channel – Diffusion : ARTE france.
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89ric_Clua</t>
+          <t>Éric_Clua</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +658,9 @@
           <t>Films</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>2002 : A bout de souffle. Documentaire de 20 min qui a obtenu la palme d’or (catégorie court-métrage) au Festival Mondial de l’Image sous-marine d’Antibes en 2002.
 2006: La chasse au service du lagon. - Documentaire TV (52 min) -Production: Grand Angle – Diffusion: Seasons.
@@ -657,7 +679,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>%C3%89ric_Clua</t>
+          <t>Éric_Clua</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,7 +697,9 @@
           <t>Divers</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>2001 : « La chasse sous-marine moderne », avec F. Grosvalet, éditions Amphora. 335 pp. Ré-éditions en 2014 et 2018.
 2002 : « Death of a blue princess ». In « Whales and Dolphins – Cetacean world guide » - IKAN collection - Debelius edition – 305 pp. pp 45–51.
